--- a/Análisis.xlsx
+++ b/Análisis.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9926A93D-EB62-4845-8DA4-DBF9CD56B987}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{9926A93D-EB62-4845-8DA4-DBF9CD56B987}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{2E55DD92-0ECC-411C-8018-8C6CBF17213E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Funciones</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Alta de lotes en Pagina web PHP</t>
   </si>
   <si>
-    <t>Tablas</t>
-  </si>
-  <si>
     <t>Lotes: zona, campo, lote, sup, hib</t>
   </si>
   <si>
@@ -49,10 +46,46 @@
     <t>Volcarlo en tabla de lotes</t>
   </si>
   <si>
-    <t>Lotes</t>
-  </si>
-  <si>
-    <t>Registrar fechas de siembra</t>
+    <t>SIEMBRA</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Parental</t>
+  </si>
+  <si>
+    <t>Origen</t>
+  </si>
+  <si>
+    <t>Cant Bolsas</t>
+  </si>
+  <si>
+    <t>sem/m</t>
+  </si>
+  <si>
+    <t>Info Lote</t>
+  </si>
+  <si>
+    <t>Coordenadas</t>
+  </si>
+  <si>
+    <t>Calculo prop cant bolsas y sem/m</t>
+  </si>
+  <si>
+    <t>Dist entre surc</t>
+  </si>
+  <si>
+    <t>Relac de siembra</t>
+  </si>
+  <si>
+    <t>%Hembra</t>
+  </si>
+  <si>
+    <t>Cierre split</t>
+  </si>
+  <si>
+    <t>Lote Cerrado Siembra</t>
   </si>
 </sst>
 </file>
@@ -370,53 +403,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="10.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
